--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidney\Documents\GitHub\xll_ml\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5AD916-C6F0-4B0A-9CCB-2A3A27C809FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16000335-3718-4762-84B4-5FF3F72024D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasury Rates" sheetId="1" r:id="rId1"/>
@@ -2504,7 +2504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643E00C4-F6CC-4E64-A377-FDB90E30013C}">
-  <dimension ref="B2:P40"/>
+  <dimension ref="B2:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -2521,6 +2521,7 @@
       <c r="B4" t="str">
         <f>_xlfn.WEBSERVICE(B2)</f>
         <v>Date,"1 Mo","1.5 Month","2 Mo","3 Mo","4 Mo","6 Mo","1 Yr","2 Yr","3 Yr","5 Yr","7 Yr","10 Yr","20 Yr","30 Yr"
+02/23/2026,3.72,3.74,3.74,3.69,3.70,3.62,3.50,3.43,3.45,3.59,3.79,4.03,4.63,4.70
 02/20/2026,3.72,3.73,3.74,3.69,3.71,3.61,3.51,3.48,3.50,3.65,3.85,4.08,4.66,4.72
 02/19/2026,3.72,3.74,3.75,3.69,3.70,3.60,3.50,3.47,3.50,3.65,3.85,4.08,4.64,4.70
 02/18/2026,3.71,3.74,3.73,3.70,3.70,3.60,3.49,3.47,3.50,3.66,3.86,4.09,4.65,4.71
@@ -2559,7 +2560,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="str" cm="1">
-        <f t="array" ref="B6:P40">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
+        <f t="array" ref="B6:P41">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
         <v>Date</v>
       </c>
       <c r="C6" t="str">
@@ -2607,13 +2608,13 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
-        <v>02/20/2026</v>
+        <v>02/23/2026</v>
       </c>
       <c r="C7" t="str">
         <v>3.72</v>
       </c>
       <c r="D7" t="str">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
       <c r="E7" t="str">
         <v>3.74</v>
@@ -2622,63 +2623,63 @@
         <v>3.69</v>
       </c>
       <c r="G7" t="str">
-        <v>3.71</v>
+        <v>3.70</v>
       </c>
       <c r="H7" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I7" t="str">
-        <v>3.51</v>
+        <v>3.50</v>
       </c>
       <c r="J7" t="str">
-        <v>3.48</v>
+        <v>3.43</v>
       </c>
       <c r="K7" t="str">
-        <v>3.50</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="str">
-        <v>3.65</v>
+        <v>3.59</v>
       </c>
       <c r="M7" t="str">
-        <v>3.85</v>
+        <v>3.79</v>
       </c>
       <c r="N7" t="str">
-        <v>4.08</v>
+        <v>4.03</v>
       </c>
       <c r="O7" t="str">
-        <v>4.66</v>
+        <v>4.63</v>
       </c>
       <c r="P7" t="str">
-        <v>4.72</v>
+        <v>4.70</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
-        <v>02/19/2026</v>
+        <v>02/20/2026</v>
       </c>
       <c r="C8" t="str">
         <v>3.72</v>
       </c>
       <c r="D8" t="str">
+        <v>3.73</v>
+      </c>
+      <c r="E8" t="str">
         <v>3.74</v>
-      </c>
-      <c r="E8" t="str">
-        <v>3.75</v>
       </c>
       <c r="F8" t="str">
         <v>3.69</v>
       </c>
       <c r="G8" t="str">
-        <v>3.70</v>
+        <v>3.71</v>
       </c>
       <c r="H8" t="str">
-        <v>3.60</v>
+        <v>3.61</v>
       </c>
       <c r="I8" t="str">
-        <v>3.50</v>
+        <v>3.51</v>
       </c>
       <c r="J8" t="str">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="K8" t="str">
         <v>3.50</v>
@@ -2693,27 +2694,27 @@
         <v>4.08</v>
       </c>
       <c r="O8" t="str">
-        <v>4.64</v>
+        <v>4.66</v>
       </c>
       <c r="P8" t="str">
-        <v>4.70</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
-        <v>02/18/2026</v>
+        <v>02/19/2026</v>
       </c>
       <c r="C9" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="D9" t="str">
         <v>3.74</v>
       </c>
       <c r="E9" t="str">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="F9" t="str">
-        <v>3.70</v>
+        <v>3.69</v>
       </c>
       <c r="G9" t="str">
         <v>3.70</v>
@@ -2722,7 +2723,7 @@
         <v>3.60</v>
       </c>
       <c r="I9" t="str">
-        <v>3.49</v>
+        <v>3.50</v>
       </c>
       <c r="J9" t="str">
         <v>3.47</v>
@@ -2731,83 +2732,83 @@
         <v>3.50</v>
       </c>
       <c r="L9" t="str">
-        <v>3.66</v>
+        <v>3.65</v>
       </c>
       <c r="M9" t="str">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="N9" t="str">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="O9" t="str">
-        <v>4.65</v>
+        <v>4.64</v>
       </c>
       <c r="P9" t="str">
-        <v>4.71</v>
+        <v>4.70</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
-        <v>02/17/2026</v>
+        <v>02/18/2026</v>
       </c>
       <c r="C10" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="D10" t="str">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="E10" t="str">
         <v>3.73</v>
       </c>
       <c r="F10" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="G10" t="str">
         <v>3.70</v>
       </c>
       <c r="H10" t="str">
-        <v>3.59</v>
+        <v>3.60</v>
       </c>
       <c r="I10" t="str">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="J10" t="str">
-        <v>3.43</v>
+        <v>3.47</v>
       </c>
       <c r="K10" t="str">
-        <v>3.47</v>
+        <v>3.50</v>
       </c>
       <c r="L10" t="str">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="M10" t="str">
-        <v>3.82</v>
+        <v>3.86</v>
       </c>
       <c r="N10" t="str">
-        <v>4.05</v>
+        <v>4.09</v>
       </c>
       <c r="O10" t="str">
-        <v>4.63</v>
+        <v>4.65</v>
       </c>
       <c r="P10" t="str">
-        <v>4.68</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
-        <v>02/13/2026</v>
+        <v>02/17/2026</v>
       </c>
       <c r="C11" t="str">
         <v>3.72</v>
       </c>
       <c r="D11" t="str">
-        <v>3.71</v>
+        <v>3.75</v>
       </c>
       <c r="E11" t="str">
         <v>3.73</v>
       </c>
       <c r="F11" t="str">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="G11" t="str">
         <v>3.70</v>
@@ -2816,33 +2817,33 @@
         <v>3.59</v>
       </c>
       <c r="I11" t="str">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="J11" t="str">
-        <v>3.40</v>
+        <v>3.43</v>
       </c>
       <c r="K11" t="str">
-        <v>3.43</v>
+        <v>3.47</v>
       </c>
       <c r="L11" t="str">
-        <v>3.61</v>
+        <v>3.63</v>
       </c>
       <c r="M11" t="str">
-        <v>3.81</v>
+        <v>3.82</v>
       </c>
       <c r="N11" t="str">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="O11" t="str">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="P11" t="str">
-        <v>4.69</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
-        <v>02/12/2026</v>
+        <v>02/13/2026</v>
       </c>
       <c r="C12" t="str">
         <v>3.72</v>
@@ -2851,54 +2852,54 @@
         <v>3.71</v>
       </c>
       <c r="E12" t="str">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="F12" t="str">
-        <v>3.70</v>
+        <v>3.68</v>
       </c>
       <c r="G12" t="str">
         <v>3.70</v>
       </c>
       <c r="H12" t="str">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="I12" t="str">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="J12" t="str">
-        <v>3.47</v>
+        <v>3.40</v>
       </c>
       <c r="K12" t="str">
-        <v>3.49</v>
+        <v>3.43</v>
       </c>
       <c r="L12" t="str">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="M12" t="str">
-        <v>3.87</v>
+        <v>3.81</v>
       </c>
       <c r="N12" t="str">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="O12" t="str">
-        <v>4.68</v>
+        <v>4.64</v>
       </c>
       <c r="P12" t="str">
-        <v>4.72</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
-        <v>02/11/2026</v>
+        <v>02/12/2026</v>
       </c>
       <c r="C13" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="D13" t="str">
         <v>3.71</v>
       </c>
       <c r="E13" t="str">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
       <c r="F13" t="str">
         <v>3.70</v>
@@ -2907,83 +2908,83 @@
         <v>3.70</v>
       </c>
       <c r="H13" t="str">
-        <v>3.60</v>
+        <v>3.58</v>
       </c>
       <c r="I13" t="str">
+        <v>3.45</v>
+      </c>
+      <c r="J13" t="str">
         <v>3.47</v>
       </c>
-      <c r="J13" t="str">
-        <v>3.52</v>
-      </c>
       <c r="K13" t="str">
-        <v>3.55</v>
+        <v>3.49</v>
       </c>
       <c r="L13" t="str">
-        <v>3.75</v>
+        <v>3.67</v>
       </c>
       <c r="M13" t="str">
-        <v>3.96</v>
+        <v>3.87</v>
       </c>
       <c r="N13" t="str">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="O13" t="str">
-        <v>4.76</v>
+        <v>4.68</v>
       </c>
       <c r="P13" t="str">
-        <v>4.82</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
-        <v>02/10/2026</v>
+        <v>02/11/2026</v>
       </c>
       <c r="C14" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="D14" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E14" t="str">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="F14" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="G14" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="H14" t="str">
-        <v>3.58</v>
+        <v>3.60</v>
       </c>
       <c r="I14" t="str">
-        <v>3.40</v>
+        <v>3.47</v>
       </c>
       <c r="J14" t="str">
-        <v>3.45</v>
+        <v>3.52</v>
       </c>
       <c r="K14" t="str">
-        <v>3.50</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="str">
-        <v>3.70</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="str">
-        <v>3.92</v>
+        <v>3.96</v>
       </c>
       <c r="N14" t="str">
-        <v>4.16</v>
+        <v>4.18</v>
       </c>
       <c r="O14" t="str">
-        <v>4.73</v>
+        <v>4.76</v>
       </c>
       <c r="P14" t="str">
-        <v>4.78</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
-        <v>02/09/2026</v>
+        <v>02/10/2026</v>
       </c>
       <c r="C15" t="str">
         <v>3.72</v>
@@ -2992,45 +2993,45 @@
         <v>3.72</v>
       </c>
       <c r="E15" t="str">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
       <c r="F15" t="str">
         <v>3.69</v>
       </c>
       <c r="G15" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="H15" t="str">
+        <v>3.58</v>
+      </c>
+      <c r="I15" t="str">
+        <v>3.40</v>
+      </c>
+      <c r="J15" t="str">
+        <v>3.45</v>
+      </c>
+      <c r="K15" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="L15" t="str">
         <v>3.70</v>
       </c>
-      <c r="H15" t="str">
-        <v>3.59</v>
-      </c>
-      <c r="I15" t="str">
-        <v>3.43</v>
-      </c>
-      <c r="J15" t="str">
-        <v>3.48</v>
-      </c>
-      <c r="K15" t="str">
-        <v>3.56</v>
-      </c>
-      <c r="L15" t="str">
-        <v>3.75</v>
-      </c>
       <c r="M15" t="str">
-        <v>3.97</v>
+        <v>3.92</v>
       </c>
       <c r="N15" t="str">
-        <v>4.22</v>
+        <v>4.16</v>
       </c>
       <c r="O15" t="str">
-        <v>4.79</v>
+        <v>4.73</v>
       </c>
       <c r="P15" t="str">
-        <v>4.85</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
-        <v>02/06/2026</v>
+        <v>02/09/2026</v>
       </c>
       <c r="C16" t="str">
         <v>3.72</v>
@@ -3039,10 +3040,10 @@
         <v>3.72</v>
       </c>
       <c r="E16" t="str">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="F16" t="str">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="G16" t="str">
         <v>3.70</v>
@@ -3051,25 +3052,25 @@
         <v>3.59</v>
       </c>
       <c r="I16" t="str">
-        <v>3.45</v>
+        <v>3.43</v>
       </c>
       <c r="J16" t="str">
-        <v>3.50</v>
+        <v>3.48</v>
       </c>
       <c r="K16" t="str">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
       <c r="L16" t="str">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="M16" t="str">
-        <v>3.98</v>
+        <v>3.97</v>
       </c>
       <c r="N16" t="str">
         <v>4.22</v>
       </c>
       <c r="O16" t="str">
-        <v>4.80</v>
+        <v>4.79</v>
       </c>
       <c r="P16" t="str">
         <v>4.85</v>
@@ -3077,46 +3078,46 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
-        <v>02/05/2026</v>
+        <v>02/06/2026</v>
       </c>
       <c r="C17" t="str">
         <v>3.72</v>
       </c>
       <c r="D17" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="E17" t="str">
         <v>3.74</v>
       </c>
       <c r="F17" t="str">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="G17" t="str">
-        <v>3.68</v>
+        <v>3.70</v>
       </c>
       <c r="H17" t="str">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="I17" t="str">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="J17" t="str">
-        <v>3.47</v>
+        <v>3.50</v>
       </c>
       <c r="K17" t="str">
-        <v>3.55</v>
+        <v>3.57</v>
       </c>
       <c r="L17" t="str">
-        <v>3.74</v>
+        <v>3.76</v>
       </c>
       <c r="M17" t="str">
-        <v>3.97</v>
+        <v>3.98</v>
       </c>
       <c r="N17" t="str">
-        <v>4.21</v>
+        <v>4.22</v>
       </c>
       <c r="O17" t="str">
-        <v>4.79</v>
+        <v>4.80</v>
       </c>
       <c r="P17" t="str">
         <v>4.85</v>
@@ -3124,54 +3125,54 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
-        <v>02/04/2026</v>
+        <v>02/05/2026</v>
       </c>
       <c r="C18" t="str">
         <v>3.72</v>
       </c>
       <c r="D18" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E18" t="str">
         <v>3.74</v>
       </c>
       <c r="F18" t="str">
-        <v>3.69</v>
+        <v>3.67</v>
       </c>
       <c r="G18" t="str">
-        <v>3.70</v>
+        <v>3.68</v>
       </c>
       <c r="H18" t="str">
-        <v>3.62</v>
+        <v>3.58</v>
       </c>
       <c r="I18" t="str">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="J18" t="str">
-        <v>3.57</v>
+        <v>3.47</v>
       </c>
       <c r="K18" t="str">
-        <v>3.64</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="str">
-        <v>3.83</v>
+        <v>3.74</v>
       </c>
       <c r="M18" t="str">
-        <v>4.05</v>
+        <v>3.97</v>
       </c>
       <c r="N18" t="str">
-        <v>4.29</v>
+        <v>4.21</v>
       </c>
       <c r="O18" t="str">
-        <v>4.86</v>
+        <v>4.79</v>
       </c>
       <c r="P18" t="str">
-        <v>4.91</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
-        <v>02/03/2026</v>
+        <v>02/04/2026</v>
       </c>
       <c r="C19" t="str">
         <v>3.72</v>
@@ -3204,21 +3205,21 @@
         <v>3.83</v>
       </c>
       <c r="M19" t="str">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="N19" t="str">
-        <v>4.28</v>
+        <v>4.29</v>
       </c>
       <c r="O19" t="str">
-        <v>4.85</v>
+        <v>4.86</v>
       </c>
       <c r="P19" t="str">
-        <v>4.90</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
-        <v>02/02/2026</v>
+        <v>02/03/2026</v>
       </c>
       <c r="C20" t="str">
         <v>3.72</v>
@@ -3251,10 +3252,10 @@
         <v>3.83</v>
       </c>
       <c r="M20" t="str">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="N20" t="str">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
       <c r="O20" t="str">
         <v>4.85</v>
@@ -3265,54 +3266,54 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
-        <v>01/30/2026</v>
+        <v>02/02/2026</v>
       </c>
       <c r="C21" t="str">
         <v>3.72</v>
       </c>
       <c r="D21" t="str">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="E21" t="str">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="F21" t="str">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="G21" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="H21" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I21" t="str">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="J21" t="str">
-        <v>3.52</v>
+        <v>3.57</v>
       </c>
       <c r="K21" t="str">
-        <v>3.60</v>
+        <v>3.64</v>
       </c>
       <c r="L21" t="str">
-        <v>3.79</v>
+        <v>3.83</v>
       </c>
       <c r="M21" t="str">
-        <v>4.01</v>
+        <v>4.05</v>
       </c>
       <c r="N21" t="str">
-        <v>4.26</v>
+        <v>4.29</v>
       </c>
       <c r="O21" t="str">
-        <v>4.82</v>
+        <v>4.85</v>
       </c>
       <c r="P21" t="str">
-        <v>4.87</v>
+        <v>4.90</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
-        <v>01/29/2026</v>
+        <v>01/30/2026</v>
       </c>
       <c r="C22" t="str">
         <v>3.72</v>
@@ -3330,75 +3331,75 @@
         <v>3.69</v>
       </c>
       <c r="H22" t="str">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="I22" t="str">
-        <v>3.50</v>
+        <v>3.48</v>
       </c>
       <c r="J22" t="str">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="K22" t="str">
-        <v>3.63</v>
+        <v>3.60</v>
       </c>
       <c r="L22" t="str">
-        <v>3.80</v>
+        <v>3.79</v>
       </c>
       <c r="M22" t="str">
         <v>4.01</v>
       </c>
       <c r="N22" t="str">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="O22" t="str">
-        <v>4.80</v>
+        <v>4.82</v>
       </c>
       <c r="P22" t="str">
-        <v>4.85</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
-        <v>01/28/2026</v>
+        <v>01/29/2026</v>
       </c>
       <c r="C23" t="str">
-        <v>3.76</v>
+        <v>3.72</v>
       </c>
       <c r="D23" t="str">
-        <v>3.72</v>
+        <v>3.73</v>
       </c>
       <c r="E23" t="str">
-        <v>3.71</v>
+        <v>3.75</v>
       </c>
       <c r="F23" t="str">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="G23" t="str">
-        <v>3.70</v>
+        <v>3.69</v>
       </c>
       <c r="H23" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="I23" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="J23" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="K23" t="str">
         <v>3.63</v>
       </c>
-      <c r="I23" t="str">
-        <v>3.52</v>
-      </c>
-      <c r="J23" t="str">
-        <v>3.56</v>
-      </c>
-      <c r="K23" t="str">
-        <v>3.66</v>
-      </c>
       <c r="L23" t="str">
-        <v>3.83</v>
+        <v>3.80</v>
       </c>
       <c r="M23" t="str">
-        <v>4.05</v>
+        <v>4.01</v>
       </c>
       <c r="N23" t="str">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="O23" t="str">
-        <v>4.81</v>
+        <v>4.80</v>
       </c>
       <c r="P23" t="str">
         <v>4.85</v>
@@ -3406,60 +3407,60 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
-        <v>01/27/2026</v>
+        <v>01/28/2026</v>
       </c>
       <c r="C24" t="str">
-        <v>3.77</v>
+        <v>3.76</v>
       </c>
       <c r="D24" t="str">
         <v>3.72</v>
       </c>
       <c r="E24" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="F24" t="str">
+        <v>3.68</v>
+      </c>
+      <c r="G24" t="str">
         <v>3.70</v>
       </c>
-      <c r="F24" t="str">
-        <v>3.67</v>
-      </c>
-      <c r="G24" t="str">
+      <c r="H24" t="str">
+        <v>3.63</v>
+      </c>
+      <c r="I24" t="str">
+        <v>3.52</v>
+      </c>
+      <c r="J24" t="str">
+        <v>3.56</v>
+      </c>
+      <c r="K24" t="str">
         <v>3.66</v>
       </c>
-      <c r="H24" t="str">
-        <v>3.61</v>
-      </c>
-      <c r="I24" t="str">
-        <v>3.50</v>
-      </c>
-      <c r="J24" t="str">
-        <v>3.53</v>
-      </c>
-      <c r="K24" t="str">
-        <v>3.65</v>
-      </c>
       <c r="L24" t="str">
-        <v>3.81</v>
+        <v>3.83</v>
       </c>
       <c r="M24" t="str">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="N24" t="str">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="O24" t="str">
-        <v>4.79</v>
+        <v>4.81</v>
       </c>
       <c r="P24" t="str">
-        <v>4.83</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
-        <v>01/26/2026</v>
+        <v>01/27/2026</v>
       </c>
       <c r="C25" t="str">
         <v>3.77</v>
       </c>
       <c r="D25" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="E25" t="str">
         <v>3.70</v>
@@ -3468,89 +3469,89 @@
         <v>3.67</v>
       </c>
       <c r="G25" t="str">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="H25" t="str">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="I25" t="str">
-        <v>3.52</v>
+        <v>3.50</v>
       </c>
       <c r="J25" t="str">
-        <v>3.56</v>
+        <v>3.53</v>
       </c>
       <c r="K25" t="str">
-        <v>3.66</v>
+        <v>3.65</v>
       </c>
       <c r="L25" t="str">
-        <v>3.82</v>
+        <v>3.81</v>
       </c>
       <c r="M25" t="str">
-        <v>4.02</v>
+        <v>4.03</v>
       </c>
       <c r="N25" t="str">
-        <v>4.22</v>
+        <v>4.24</v>
       </c>
       <c r="O25" t="str">
-        <v>4.75</v>
+        <v>4.79</v>
       </c>
       <c r="P25" t="str">
-        <v>4.80</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" t="str">
-        <v>01/23/2026</v>
+        <v>01/26/2026</v>
       </c>
       <c r="C26" t="str">
-        <v>3.78</v>
+        <v>3.77</v>
       </c>
       <c r="D26" t="str">
         <v>3.71</v>
       </c>
       <c r="E26" t="str">
-        <v>3.72</v>
+        <v>3.70</v>
       </c>
       <c r="F26" t="str">
-        <v>3.70</v>
+        <v>3.67</v>
       </c>
       <c r="G26" t="str">
         <v>3.67</v>
       </c>
       <c r="H26" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I26" t="str">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="J26" t="str">
-        <v>3.60</v>
+        <v>3.56</v>
       </c>
       <c r="K26" t="str">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="L26" t="str">
-        <v>3.84</v>
+        <v>3.82</v>
       </c>
       <c r="M26" t="str">
-        <v>4.03</v>
+        <v>4.02</v>
       </c>
       <c r="N26" t="str">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="O26" t="str">
-        <v>4.78</v>
+        <v>4.75</v>
       </c>
       <c r="P26" t="str">
-        <v>4.82</v>
+        <v>4.80</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" t="str">
-        <v>01/22/2026</v>
+        <v>01/23/2026</v>
       </c>
       <c r="C27" t="str">
-        <v>3.79</v>
+        <v>3.78</v>
       </c>
       <c r="D27" t="str">
         <v>3.71</v>
@@ -3559,7 +3560,7 @@
         <v>3.72</v>
       </c>
       <c r="F27" t="str">
-        <v>3.71</v>
+        <v>3.70</v>
       </c>
       <c r="G27" t="str">
         <v>3.67</v>
@@ -3571,77 +3572,77 @@
         <v>3.53</v>
       </c>
       <c r="J27" t="str">
-        <v>3.61</v>
+        <v>3.60</v>
       </c>
       <c r="K27" t="str">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="L27" t="str">
-        <v>3.85</v>
+        <v>3.84</v>
       </c>
       <c r="M27" t="str">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="N27" t="str">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="O27" t="str">
-        <v>4.79</v>
+        <v>4.78</v>
       </c>
       <c r="P27" t="str">
-        <v>4.84</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" t="str">
-        <v>01/21/2026</v>
+        <v>01/22/2026</v>
       </c>
       <c r="C28" t="str">
-        <v>3.75</v>
+        <v>3.79</v>
       </c>
       <c r="D28" t="str">
         <v>3.71</v>
       </c>
       <c r="E28" t="str">
-        <v>3.70</v>
+        <v>3.72</v>
       </c>
       <c r="F28" t="str">
-        <v>3.70</v>
+        <v>3.71</v>
       </c>
       <c r="G28" t="str">
         <v>3.67</v>
       </c>
       <c r="H28" t="str">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="I28" t="str">
         <v>3.53</v>
       </c>
       <c r="J28" t="str">
-        <v>3.60</v>
+        <v>3.61</v>
       </c>
       <c r="K28" t="str">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="L28" t="str">
-        <v>3.83</v>
+        <v>3.85</v>
       </c>
       <c r="M28" t="str">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="N28" t="str">
         <v>4.26</v>
       </c>
       <c r="O28" t="str">
-        <v>4.82</v>
+        <v>4.79</v>
       </c>
       <c r="P28" t="str">
-        <v>4.87</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" t="str">
-        <v>01/20/2026</v>
+        <v>01/21/2026</v>
       </c>
       <c r="C29" t="str">
         <v>3.75</v>
@@ -3650,16 +3651,16 @@
         <v>3.71</v>
       </c>
       <c r="E29" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="F29" t="str">
         <v>3.70</v>
       </c>
       <c r="G29" t="str">
-        <v>3.65</v>
+        <v>3.67</v>
       </c>
       <c r="H29" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I29" t="str">
         <v>3.53</v>
@@ -3668,86 +3669,86 @@
         <v>3.60</v>
       </c>
       <c r="K29" t="str">
-        <v>3.68</v>
+        <v>3.66</v>
       </c>
       <c r="L29" t="str">
-        <v>3.86</v>
+        <v>3.83</v>
       </c>
       <c r="M29" t="str">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="N29" t="str">
-        <v>4.30</v>
+        <v>4.26</v>
       </c>
       <c r="O29" t="str">
+        <v>4.82</v>
+      </c>
+      <c r="P29" t="str">
         <v>4.87</v>
-      </c>
-      <c r="P29" t="str">
-        <v>4.91</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" t="str">
-        <v>01/16/2026</v>
+        <v>01/20/2026</v>
       </c>
       <c r="C30" t="str">
         <v>3.75</v>
       </c>
       <c r="D30" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E30" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="F30" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="G30" t="str">
+        <v>3.65</v>
+      </c>
+      <c r="H30" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="I30" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="J30" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="K30" t="str">
         <v>3.68</v>
       </c>
-      <c r="F30" t="str">
-        <v>3.67</v>
-      </c>
-      <c r="G30" t="str">
-        <v>3.66</v>
-      </c>
-      <c r="H30" t="str">
-        <v>3.60</v>
-      </c>
-      <c r="I30" t="str">
-        <v>3.55</v>
-      </c>
-      <c r="J30" t="str">
-        <v>3.59</v>
-      </c>
-      <c r="K30" t="str">
-        <v>3.67</v>
-      </c>
       <c r="L30" t="str">
-        <v>3.82</v>
+        <v>3.86</v>
       </c>
       <c r="M30" t="str">
-        <v>4.02</v>
+        <v>4.08</v>
       </c>
       <c r="N30" t="str">
-        <v>4.24</v>
+        <v>4.30</v>
       </c>
       <c r="O30" t="str">
-        <v>4.79</v>
+        <v>4.87</v>
       </c>
       <c r="P30" t="str">
-        <v>4.83</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" t="str">
-        <v>01/15/2026</v>
+        <v>01/16/2026</v>
       </c>
       <c r="C31" t="str">
         <v>3.75</v>
       </c>
       <c r="D31" t="str">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="E31" t="str">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="F31" t="str">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="G31" t="str">
         <v>3.66</v>
@@ -3756,72 +3757,72 @@
         <v>3.60</v>
       </c>
       <c r="I31" t="str">
-        <v>3.54</v>
+        <v>3.55</v>
       </c>
       <c r="J31" t="str">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="K31" t="str">
-        <v>3.62</v>
+        <v>3.67</v>
       </c>
       <c r="L31" t="str">
-        <v>3.77</v>
+        <v>3.82</v>
       </c>
       <c r="M31" t="str">
-        <v>3.96</v>
+        <v>4.02</v>
       </c>
       <c r="N31" t="str">
-        <v>4.17</v>
+        <v>4.24</v>
       </c>
       <c r="O31" t="str">
-        <v>4.74</v>
+        <v>4.79</v>
       </c>
       <c r="P31" t="str">
-        <v>4.79</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" t="str">
-        <v>01/14/2026</v>
+        <v>01/15/2026</v>
       </c>
       <c r="C32" t="str">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="D32" t="str">
-        <v>3.71</v>
+        <v>3.73</v>
       </c>
       <c r="E32" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="F32" t="str">
+        <v>3.68</v>
+      </c>
+      <c r="G32" t="str">
         <v>3.66</v>
       </c>
-      <c r="F32" t="str">
-        <v>3.67</v>
-      </c>
-      <c r="G32" t="str">
-        <v>3.65</v>
-      </c>
       <c r="H32" t="str">
-        <v>3.58</v>
+        <v>3.60</v>
       </c>
       <c r="I32" t="str">
-        <v>3.50</v>
+        <v>3.54</v>
       </c>
       <c r="J32" t="str">
-        <v>3.51</v>
+        <v>3.56</v>
       </c>
       <c r="K32" t="str">
-        <v>3.56</v>
+        <v>3.62</v>
       </c>
       <c r="L32" t="str">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="M32" t="str">
-        <v>3.92</v>
+        <v>3.96</v>
       </c>
       <c r="N32" t="str">
-        <v>4.15</v>
+        <v>4.17</v>
       </c>
       <c r="O32" t="str">
-        <v>4.73</v>
+        <v>4.74</v>
       </c>
       <c r="P32" t="str">
         <v>4.79</v>
@@ -3829,13 +3830,13 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" t="str">
-        <v>01/13/2026</v>
+        <v>01/14/2026</v>
       </c>
       <c r="C33" t="str">
         <v>3.72</v>
       </c>
       <c r="D33" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E33" t="str">
         <v>3.66</v>
@@ -3844,48 +3845,48 @@
         <v>3.67</v>
       </c>
       <c r="G33" t="str">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="H33" t="str">
-        <v>3.59</v>
+        <v>3.58</v>
       </c>
       <c r="I33" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="J33" t="str">
         <v>3.51</v>
       </c>
-      <c r="J33" t="str">
-        <v>3.53</v>
-      </c>
       <c r="K33" t="str">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
       <c r="L33" t="str">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="M33" t="str">
-        <v>3.95</v>
+        <v>3.92</v>
       </c>
       <c r="N33" t="str">
-        <v>4.18</v>
+        <v>4.15</v>
       </c>
       <c r="O33" t="str">
-        <v>4.77</v>
+        <v>4.73</v>
       </c>
       <c r="P33" t="str">
-        <v>4.83</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" t="str">
-        <v>01/12/2026</v>
+        <v>01/13/2026</v>
       </c>
       <c r="C34" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="D34" t="str">
-        <v>3.68</v>
+        <v>3.72</v>
       </c>
       <c r="E34" t="str">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="F34" t="str">
         <v>3.67</v>
@@ -3894,28 +3895,28 @@
         <v>3.63</v>
       </c>
       <c r="H34" t="str">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="I34" t="str">
+        <v>3.51</v>
+      </c>
+      <c r="J34" t="str">
         <v>3.53</v>
       </c>
-      <c r="J34" t="str">
-        <v>3.54</v>
-      </c>
       <c r="K34" t="str">
-        <v>3.59</v>
+        <v>3.57</v>
       </c>
       <c r="L34" t="str">
-        <v>3.77</v>
+        <v>3.75</v>
       </c>
       <c r="M34" t="str">
-        <v>3.97</v>
+        <v>3.95</v>
       </c>
       <c r="N34" t="str">
-        <v>4.19</v>
+        <v>4.18</v>
       </c>
       <c r="O34" t="str">
-        <v>4.78</v>
+        <v>4.77</v>
       </c>
       <c r="P34" t="str">
         <v>4.83</v>
@@ -3923,28 +3924,28 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" t="str">
-        <v>01/09/2026</v>
+        <v>01/12/2026</v>
       </c>
       <c r="C35" t="str">
-        <v>3.70</v>
+        <v>3.71</v>
       </c>
       <c r="D35" t="str">
         <v>3.68</v>
       </c>
       <c r="E35" t="str">
+        <v>3.64</v>
+      </c>
+      <c r="F35" t="str">
+        <v>3.67</v>
+      </c>
+      <c r="G35" t="str">
         <v>3.63</v>
       </c>
-      <c r="F35" t="str">
-        <v>3.62</v>
-      </c>
-      <c r="G35" t="str">
-        <v>3.62</v>
-      </c>
       <c r="H35" t="str">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="I35" t="str">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="J35" t="str">
         <v>3.54</v>
@@ -3953,30 +3954,30 @@
         <v>3.59</v>
       </c>
       <c r="L35" t="str">
-        <v>3.75</v>
+        <v>3.77</v>
       </c>
       <c r="M35" t="str">
-        <v>3.95</v>
+        <v>3.97</v>
       </c>
       <c r="N35" t="str">
-        <v>4.18</v>
+        <v>4.19</v>
       </c>
       <c r="O35" t="str">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="P35" t="str">
-        <v>4.82</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" t="str">
-        <v>01/08/2026</v>
+        <v>01/09/2026</v>
       </c>
       <c r="C36" t="str">
         <v>3.70</v>
       </c>
       <c r="D36" t="str">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="E36" t="str">
         <v>3.63</v>
@@ -3985,39 +3986,39 @@
         <v>3.62</v>
       </c>
       <c r="G36" t="str">
-        <v>3.60</v>
+        <v>3.62</v>
       </c>
       <c r="H36" t="str">
-        <v>3.56</v>
+        <v>3.57</v>
       </c>
       <c r="I36" t="str">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="J36" t="str">
-        <v>3.49</v>
+        <v>3.54</v>
       </c>
       <c r="K36" t="str">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="L36" t="str">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="M36" t="str">
         <v>3.95</v>
       </c>
       <c r="N36" t="str">
-        <v>4.19</v>
+        <v>4.18</v>
       </c>
       <c r="O36" t="str">
-        <v>4.79</v>
+        <v>4.76</v>
       </c>
       <c r="P36" t="str">
-        <v>4.85</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" t="str">
-        <v>01/07/2026</v>
+        <v>01/08/2026</v>
       </c>
       <c r="C37" t="str">
         <v>3.70</v>
@@ -4026,7 +4027,7 @@
         <v>3.69</v>
       </c>
       <c r="E37" t="str">
-        <v>3.60</v>
+        <v>3.63</v>
       </c>
       <c r="F37" t="str">
         <v>3.62</v>
@@ -4041,45 +4042,45 @@
         <v>3.48</v>
       </c>
       <c r="J37" t="str">
-        <v>3.47</v>
+        <v>3.49</v>
       </c>
       <c r="K37" t="str">
-        <v>3.53</v>
+        <v>3.56</v>
       </c>
       <c r="L37" t="str">
-        <v>3.70</v>
+        <v>3.74</v>
       </c>
       <c r="M37" t="str">
-        <v>3.91</v>
+        <v>3.95</v>
       </c>
       <c r="N37" t="str">
-        <v>4.15</v>
+        <v>4.19</v>
       </c>
       <c r="O37" t="str">
-        <v>4.76</v>
+        <v>4.79</v>
       </c>
       <c r="P37" t="str">
-        <v>4.82</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" t="str">
-        <v>01/06/2026</v>
+        <v>01/07/2026</v>
       </c>
       <c r="C38" t="str">
         <v>3.70</v>
       </c>
       <c r="D38" t="str">
-        <v>3.70</v>
+        <v>3.69</v>
       </c>
       <c r="E38" t="str">
-        <v>3.61</v>
+        <v>3.60</v>
       </c>
       <c r="F38" t="str">
-        <v>3.63</v>
+        <v>3.62</v>
       </c>
       <c r="G38" t="str">
-        <v>3.58</v>
+        <v>3.60</v>
       </c>
       <c r="H38" t="str">
         <v>3.56</v>
@@ -4091,115 +4092,162 @@
         <v>3.47</v>
       </c>
       <c r="K38" t="str">
-        <v>3.54</v>
+        <v>3.53</v>
       </c>
       <c r="L38" t="str">
-        <v>3.72</v>
+        <v>3.70</v>
       </c>
       <c r="M38" t="str">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="N38" t="str">
-        <v>4.18</v>
+        <v>4.15</v>
       </c>
       <c r="O38" t="str">
-        <v>4.80</v>
+        <v>4.76</v>
       </c>
       <c r="P38" t="str">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" t="str">
-        <v>01/05/2026</v>
+        <v>01/06/2026</v>
       </c>
       <c r="C39" t="str">
-        <v>3.71</v>
+        <v>3.70</v>
       </c>
       <c r="D39" t="str">
-        <v>3.68</v>
+        <v>3.70</v>
       </c>
       <c r="E39" t="str">
-        <v>3.64</v>
+        <v>3.61</v>
       </c>
       <c r="F39" t="str">
-        <v>3.64</v>
+        <v>3.63</v>
       </c>
       <c r="G39" t="str">
-        <v>3.61</v>
+        <v>3.58</v>
       </c>
       <c r="H39" t="str">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
       <c r="I39" t="str">
+        <v>3.48</v>
+      </c>
+      <c r="J39" t="str">
         <v>3.47</v>
       </c>
-      <c r="J39" t="str">
-        <v>3.46</v>
-      </c>
       <c r="K39" t="str">
-        <v>3.53</v>
+        <v>3.54</v>
       </c>
       <c r="L39" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="M39" t="str">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="N39" t="str">
-        <v>4.17</v>
+        <v>4.18</v>
       </c>
       <c r="O39" t="str">
-        <v>4.79</v>
+        <v>4.80</v>
       </c>
       <c r="P39" t="str">
-        <v>4.85</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" t="str">
-        <v>01/02/2026</v>
+        <v>01/05/2026</v>
       </c>
       <c r="C40" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="D40" t="str">
-        <v>3.71</v>
+        <v>3.68</v>
       </c>
       <c r="E40" t="str">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="F40" t="str">
-        <v>3.65</v>
+        <v>3.64</v>
       </c>
       <c r="G40" t="str">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="H40" t="str">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="I40" t="str">
         <v>3.47</v>
       </c>
       <c r="J40" t="str">
+        <v>3.46</v>
+      </c>
+      <c r="K40" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="L40" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="M40" t="str">
+        <v>3.92</v>
+      </c>
+      <c r="N40" t="str">
+        <v>4.17</v>
+      </c>
+      <c r="O40" t="str">
+        <v>4.79</v>
+      </c>
+      <c r="P40" t="str">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B41" t="str">
+        <v>01/02/2026</v>
+      </c>
+      <c r="C41" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="D41" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="E41" t="str">
+        <v>3.66</v>
+      </c>
+      <c r="F41" t="str">
+        <v>3.65</v>
+      </c>
+      <c r="G41" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="H41" t="str">
+        <v>3.58</v>
+      </c>
+      <c r="I41" t="str">
         <v>3.47</v>
       </c>
-      <c r="K40" t="str">
+      <c r="J41" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="K41" t="str">
         <v>3.55</v>
       </c>
-      <c r="L40" t="str">
+      <c r="L41" t="str">
         <v>3.74</v>
       </c>
-      <c r="M40" t="str">
+      <c r="M41" t="str">
         <v>3.95</v>
       </c>
-      <c r="N40" t="str">
+      <c r="N41" t="str">
         <v>4.19</v>
       </c>
-      <c r="O40" t="str">
+      <c r="O41" t="str">
         <v>4.81</v>
       </c>
-      <c r="P40" t="str">
+      <c r="P41" t="str">
         <v>4.86</v>
       </c>
     </row>
@@ -4216,7 +4264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E2F35-77D5-4361-8DFB-2603DE31162A}">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4261,7 +4309,7 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C7">
         <f>_xll.\FI.INSTRUMENT(B3:B5, C3:C5)</f>
-        <v>1883224408720</v>
+        <v>2376317066272</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -4313,7 +4361,7 @@
       </c>
       <c r="D13">
         <f>_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(B13,C13)</f>
-        <v>1883224407424</v>
+        <v>2376317070736</v>
       </c>
       <c r="E13">
         <f>_xll.FI.INSTRUMENT(D13)</f>
@@ -4329,7 +4377,7 @@
       </c>
       <c r="D14">
         <f>_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(B14,C14)</f>
-        <v>1883224406416</v>
+        <v>2376317082976</v>
       </c>
       <c r="E14">
         <f>_xll.FI.INSTRUMENT(D14)</f>
@@ -4345,7 +4393,7 @@
       </c>
       <c r="D15">
         <f>_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(B15,C15)</f>
-        <v>1883224395472</v>
+        <v>2376317079088</v>
       </c>
       <c r="E15">
         <f>_xll.FI.INSTRUMENT(D15)</f>
@@ -4381,7 +4429,7 @@
       </c>
       <c r="E17">
         <f>_xll.\FI.INSTRUMENT.BOND(B17,C17,D17)</f>
-        <v>1882951648256</v>
+        <v>2376316789728</v>
       </c>
       <c r="F17">
         <f>_xll.FI.INSTRUMENT(E17)</f>
@@ -4400,7 +4448,7 @@
       </c>
       <c r="E18">
         <f>_xll.\FI.INSTRUMENT.BOND(B18,C18,D18)</f>
-        <v>1882951651296</v>
+        <v>2376316789568</v>
       </c>
       <c r="F18">
         <f>_xll.FI.INSTRUMENT(E18)</f>
@@ -4419,7 +4467,7 @@
       </c>
       <c r="E19">
         <f>_xll.\FI.INSTRUMENT.BOND(B19,C19,D19)</f>
-        <v>1882951647616</v>
+        <v>2376316789408</v>
       </c>
       <c r="F19">
         <f>_xll.FI.INSTRUMENT(E19)</f>
@@ -4438,7 +4486,7 @@
       </c>
       <c r="E20">
         <f>_xll.\FI.INSTRUMENT.BOND(B20,C20,D20)</f>
-        <v>1882951645696</v>
+        <v>2376316795008</v>
       </c>
       <c r="F20">
         <f>_xll.FI.INSTRUMENT(E20)</f>
@@ -4455,7 +4503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F354A35E-C248-4AE4-A2E8-7948ED4AA090}">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4504,7 +4552,7 @@
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" cm="1">
         <f t="array" ref="B7">_xll.\FI.CURVE.PWFLAT(B3:B6,C3:C6)</f>
-        <v>1883224408288</v>
+        <v>2376317083120</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -4553,7 +4601,7 @@
   <dimension ref="B2:L74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -4579,7 +4627,7 @@
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(G3:G16, E3:E16)</f>
-        <v>1883224391728</v>
+        <v>2376317080816</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -4602,7 +4650,7 @@
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C3, 1)</f>
-        <v>1883224402960</v>
+        <v>2376317066416</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -4625,7 +4673,7 @@
       </c>
       <c r="G4" cm="1">
         <f t="array" ref="G4">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C4, 1)</f>
-        <v>1883224404688</v>
+        <v>2376317069872</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
@@ -4651,7 +4699,7 @@
       </c>
       <c r="G5" cm="1">
         <f t="array" ref="G5">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C5, 1)</f>
-        <v>1883224405984</v>
+        <v>2376317074192</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>25</v>
@@ -4683,7 +4731,7 @@
       </c>
       <c r="G6" cm="1">
         <f t="array" ref="G6">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C6, 1)</f>
-        <v>1883224402096</v>
+        <v>2376317079952</v>
       </c>
       <c r="H6">
         <v>0.1</v>
@@ -4721,7 +4769,7 @@
       </c>
       <c r="G7" cm="1">
         <f t="array" ref="G7">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C7, 1)</f>
-        <v>1883224401232</v>
+        <v>2376317067280</v>
       </c>
       <c r="H7">
         <v>0.5</v>
@@ -4758,7 +4806,7 @@
       </c>
       <c r="G8" cm="1">
         <f t="array" ref="G8">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C8, 1)</f>
-        <v>1883224416640</v>
+        <v>2376317070592</v>
       </c>
       <c r="I8">
         <v>0.2</v>
@@ -4791,7 +4839,7 @@
       </c>
       <c r="G9" cm="1">
         <f t="array" ref="G9">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C9, 1)</f>
-        <v>1883224403248</v>
+        <v>2376317069440</v>
       </c>
       <c r="I9">
         <v>0.30000000000000004</v>
@@ -4826,7 +4874,7 @@
       </c>
       <c r="G10" cm="1">
         <f t="array" ref="G10">_xll.\FI.INSTRUMENT.BOND(C10, D10, 2)</f>
-        <v>1882951648736</v>
+        <v>2376316792928</v>
       </c>
       <c r="I10">
         <v>0.4</v>
@@ -4858,7 +4906,7 @@
       </c>
       <c r="G11" cm="1">
         <f t="array" ref="G11">_xll.\FI.INSTRUMENT.BOND(C11, D11, 2)</f>
-        <v>1882951645216</v>
+        <v>2376316787168</v>
       </c>
       <c r="I11">
         <v>0.5</v>
@@ -4890,7 +4938,7 @@
       </c>
       <c r="G12" cm="1">
         <f t="array" ref="G12">_xll.\FI.INSTRUMENT.BOND(C12, D12, 2)</f>
-        <v>1882951652736</v>
+        <v>2376316792608</v>
       </c>
       <c r="I12">
         <v>0.6</v>
@@ -4922,7 +4970,7 @@
       </c>
       <c r="G13" cm="1">
         <f t="array" ref="G13">_xll.\FI.INSTRUMENT.BOND(C13, D13, 2)</f>
-        <v>1882951652576</v>
+        <v>2376316793568</v>
       </c>
       <c r="I13">
         <v>0.7</v>
@@ -4954,7 +5002,7 @@
       </c>
       <c r="G14" cm="1">
         <f t="array" ref="G14">_xll.\FI.INSTRUMENT.BOND(C14, D14, 2)</f>
-        <v>1882951649856</v>
+        <v>2376316793248</v>
       </c>
       <c r="I14">
         <v>0.79999999999999993</v>
@@ -4986,7 +5034,7 @@
       </c>
       <c r="G15" cm="1">
         <f t="array" ref="G15">_xll.\FI.INSTRUMENT.BOND(C15, D15, 2)</f>
-        <v>1882951651456</v>
+        <v>2376316788768</v>
       </c>
       <c r="I15">
         <v>0.89999999999999991</v>
@@ -5018,7 +5066,7 @@
       </c>
       <c r="G16" cm="1">
         <f t="array" ref="G16">_xll.\FI.INSTRUMENT.BOND(C16, D16, 2)</f>
-        <v>1882951646176</v>
+        <v>2376316793408</v>
       </c>
       <c r="I16">
         <v>1</v>
